--- a/test_data/网络资源.xlsx
+++ b/test_data/网络资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19905" windowHeight="7545"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="创建VLAN池" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -33,111 +33,129 @@
     <t>tag</t>
   </si>
   <si>
+    <t>ResourcePoolName</t>
+  </si>
+  <si>
+    <t>vlanTagStart</t>
+  </si>
+  <si>
+    <t>vlanTagEnd</t>
+  </si>
+  <si>
+    <t>VC-VLAN池</t>
+  </si>
+  <si>
+    <t>TRADITIONAL_VLAN</t>
+  </si>
+  <si>
+    <t>vmware资源池16</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>OP-VLAN池</t>
+  </si>
+  <si>
+    <t>openstack资源池65</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 </t>
+  </si>
+  <si>
+    <t>update_name</t>
+  </si>
+  <si>
     <t>vlanPoolResourcePoolList</t>
   </si>
   <si>
-    <t>vlanTagStart</t>
-  </si>
-  <si>
-    <t>vlanTagEnd</t>
-  </si>
-  <si>
     <t>自动创建VLAN池1</t>
   </si>
   <si>
-    <t>TRADITIONAL_VLAN</t>
+    <t>自动创建VLAN池1修改</t>
   </si>
   <si>
     <t>[{"resourcePoolId": 114}]</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t xml:space="preserve">100 </t>
   </si>
   <si>
     <t>自动创建VLAN池2</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101 </t>
-  </si>
-  <si>
-    <t>update_name</t>
-  </si>
-  <si>
-    <t>自动创建VLAN池1修改</t>
-  </si>
-  <si>
     <t>自动创建VLAN池2修改</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>vlanPoolName</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>tagType</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>VC-网络</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>BUSINESS</t>
+  </si>
+  <si>
+    <t>OUTER_NET</t>
+  </si>
+  <si>
+    <t>vmware网络</t>
+  </si>
+  <si>
+    <t>OP-网络</t>
+  </si>
+  <si>
+    <t>openstack网络</t>
+  </si>
+  <si>
     <t>vlanPoolId</t>
   </si>
   <si>
-    <t>vlanId</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>tagType</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t>vlanTag</t>
+  </si>
+  <si>
+    <t>resourcePoolIds</t>
   </si>
   <si>
     <t>自动化创建网络1</t>
   </si>
   <si>
-    <t>VLAN</t>
+    <t>自动化创建网络1修改</t>
   </si>
   <si>
     <t>141</t>
   </si>
   <si>
-    <t>21548</t>
-  </si>
-  <si>
-    <t>BUSINESS</t>
-  </si>
-  <si>
-    <t>OUTER_NET</t>
-  </si>
-  <si>
-    <t>这是描述</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>修改后的描述</t>
+  </si>
+  <si>
+    <t>[114]</t>
   </si>
   <si>
     <t>自动化创建网络2</t>
   </si>
   <si>
-    <t>21549</t>
-  </si>
-  <si>
-    <t>vlanTag</t>
-  </si>
-  <si>
-    <t>resourcePoolIds</t>
-  </si>
-  <si>
-    <t>自动化创建网络1修改</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>修改后的描述</t>
-  </si>
-  <si>
-    <t>[114]</t>
-  </si>
-  <si>
     <t>自动化创建网络2修改</t>
   </si>
   <si>
@@ -171,13 +189,37 @@
     <t>alternateDns</t>
   </si>
   <si>
+    <t>subnet</t>
+  </si>
+  <si>
+    <t>IPV4</t>
+  </si>
+  <si>
+    <t>172.21.3.1/24</t>
+  </si>
+  <si>
+    <t>172.21.3.1</t>
+  </si>
+  <si>
+    <t>172.21.3.40,172.21.3.200</t>
+  </si>
+  <si>
+    <t>172.21.6.1/24</t>
+  </si>
+  <si>
+    <t>172.21.6.1</t>
+  </si>
+  <si>
+    <t>172.21.6.40,172.21.6.200</t>
+  </si>
+  <si>
+    <t>update_subnet_name</t>
+  </si>
+  <si>
     <t>自动化创建子网1</t>
   </si>
   <si>
-    <t>IPV4</t>
-  </si>
-  <si>
-    <t>192.168.1.1/24</t>
+    <t>自动化创建子网1修改</t>
   </si>
   <si>
     <t>192.168.1.1</t>
@@ -195,7 +237,7 @@
     <t>自动化创建子网2</t>
   </si>
   <si>
-    <t>192.168.2.1/24</t>
+    <t>自动化创建子网2修改</t>
   </si>
   <si>
     <t>192.168.2.1</t>
@@ -204,15 +246,6 @@
     <t>192.168.2.2,192.168.2.200</t>
   </si>
   <si>
-    <t>update_subnet_name</t>
-  </si>
-  <si>
-    <t>自动化创建子网1修改</t>
-  </si>
-  <si>
-    <t>自动化创建子网2修改</t>
-  </si>
-  <si>
     <t>network_resourcepool_name</t>
   </si>
   <si>
@@ -222,10 +255,16 @@
     <t>object_name</t>
   </si>
   <si>
-    <t>VMware资源池1</t>
-  </si>
-  <si>
     <t>vmware</t>
+  </si>
+  <si>
+    <t>VLAN1214</t>
+  </si>
+  <si>
+    <t>openstack</t>
+  </si>
+  <si>
+    <t>VLAN1217</t>
   </si>
   <si>
     <t>自动创建网络对象1</t>
@@ -239,17 +278,92 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,6 +381,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -275,55 +396,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,8 +412,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,39 +436,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -406,6 +453,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,67 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,55 +621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,50 +637,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -600,50 +647,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +697,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -697,6 +744,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -705,10 +767,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -717,19 +779,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
@@ -738,112 +800,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -852,13 +914,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -1210,64 +1277,64 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="34.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -1275,9 +1342,6 @@
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1289,40 +1353,49 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="1" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1348,26 +1421,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1392,17 +1465,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1490,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1441,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1452,61 +1525,61 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1537,12 +1610,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1554,87 +1627,80 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1715,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1671,83 +1737,83 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
       <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1828,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1779,91 +1845,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="b">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="b">
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
+      <c r="F3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1894,80 +1952,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1993,26 +2051,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +2085,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -2035,49 +2093,49 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/网络资源.xlsx
+++ b/test_data/网络资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="创建VLAN池" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,15 @@
     <t xml:space="preserve">101 </t>
   </si>
   <si>
+    <t>OP30-VLAN池</t>
+  </si>
+  <si>
+    <t>openstack资源池30</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
     <t>update_name</t>
   </si>
   <si>
@@ -126,6 +135,12 @@
     <t>openstack网络</t>
   </si>
   <si>
+    <t>OP30-网络</t>
+  </si>
+  <si>
+    <t>openstack30网络</t>
+  </si>
+  <si>
     <t>vlanPoolId</t>
   </si>
   <si>
@@ -211,6 +226,15 @@
   </si>
   <si>
     <t>172.21.6.40,172.21.6.200</t>
+  </si>
+  <si>
+    <t>172.21.8.1/24</t>
+  </si>
+  <si>
+    <t>172.21.8.1</t>
+  </si>
+  <si>
+    <t>172.21.8.40,172.21.8.200</t>
   </si>
   <si>
     <t>update_subnet_name</t>
@@ -278,9 +302,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -300,9 +324,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,7 +347,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,44 +453,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,62 +467,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -453,25 +477,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,79 +579,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,67 +651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,44 +688,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,6 +715,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,6 +757,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -767,10 +791,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -779,133 +803,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1277,19 +1301,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1341,6 +1365,23 @@
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1353,35 +1394,36 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1389,13 +1431,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1421,26 +1474,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1465,17 +1518,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1508,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1525,56 +1578,56 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
@@ -1610,12 +1663,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1627,16 +1680,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
@@ -1648,59 +1701,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1734,86 +1807,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1825,13 +1898,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
@@ -1846,82 +1919,107 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1952,80 +2050,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2051,26 +2149,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2085,7 +2183,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -2098,44 +2196,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/网络资源.xlsx
+++ b/test_data/网络资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7590" tabRatio="1000" activeTab="1"/>
+    <workbookView windowWidth="20700" windowHeight="8325" tabRatio="1000" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="创建VLAN池" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -109,6 +109,9 @@
     <t>ResourcePool</t>
   </si>
   <si>
+    <t>删除VLAN测试-update</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -223,21 +226,21 @@
     <t>172.21.8.40,172.21.8.200</t>
   </si>
   <si>
+    <t>172.21.10.1/24</t>
+  </si>
+  <si>
+    <t>172.21.10.1</t>
+  </si>
+  <si>
+    <t>172.21.10.40,172.21.10.200</t>
+  </si>
+  <si>
+    <t>update_subnet_name</t>
+  </si>
+  <si>
     <t>删除子网测试</t>
   </si>
   <si>
-    <t>172.21.10.1/24</t>
-  </si>
-  <si>
-    <t>172.21.10.1</t>
-  </si>
-  <si>
-    <t>172.21.10.40,172.21.10.200</t>
-  </si>
-  <si>
-    <t>update_subnet_name</t>
-  </si>
-  <si>
     <t>114.114.114.114</t>
   </si>
   <si>
@@ -265,7 +268,19 @@
     <t>DSwitch1</t>
   </si>
   <si>
+    <t>objectname</t>
+  </si>
+  <si>
+    <t>VLAN1213</t>
+  </si>
+  <si>
     <t>openstack</t>
+  </si>
+  <si>
+    <t>VLAN1216</t>
+  </si>
+  <si>
+    <t>vlan1216</t>
   </si>
   <si>
     <t>resourcepool</t>
@@ -285,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -319,6 +334,96 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -327,13 +432,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -343,89 +441,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,9 +463,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,14 +478,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -483,187 +498,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,30 +703,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,6 +740,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -778,17 +804,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -797,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -809,137 +824,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -955,10 +970,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1310,16 +1334,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="6" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1421,7 +1445,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="19275" topLeftCell="L1" activePane="topLeft"/>
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -1436,36 +1460,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="5" t="s">
         <v>67</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1477,61 +1501,74 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1583,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1560,13 +1597,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:3">
@@ -1574,10 +1611,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1606,19 +1643,19 @@
   <sheetData>
     <row r="1" ht="18" spans="1:5">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1626,16 +1663,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1647,53 +1684,70 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.875" style="7" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9">
+        <v>200</v>
+      </c>
+      <c r="E2" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>201</v>
-      </c>
-      <c r="E2">
-        <v>201</v>
+      <c r="D3" s="9">
+        <v>200</v>
+      </c>
+      <c r="E3" s="9">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1718,7 +1772,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -1749,9 +1803,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="7" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="16.125" customWidth="1"/>
@@ -1762,96 +1816,96 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -1867,50 +1921,50 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1931,15 +1985,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="20.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1947,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1961,8 +2015,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1980,117 +2034,117 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>55</v>
@@ -2136,39 +2190,39 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -2180,10 +2234,10 @@
         <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2209,18 +2263,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/网络资源.xlsx
+++ b/test_data/网络资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20700" windowHeight="8325" tabRatio="1000" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="1000" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="创建VLAN池" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -226,6 +226,9 @@
     <t>172.21.8.40,172.21.8.200</t>
   </si>
   <si>
+    <t>删除子网测试</t>
+  </si>
+  <si>
     <t>172.21.10.1/24</t>
   </si>
   <si>
@@ -236,9 +239,6 @@
   </si>
   <si>
     <t>update_subnet_name</t>
-  </si>
-  <si>
-    <t>删除子网测试</t>
   </si>
   <si>
     <t>114.114.114.114</t>
@@ -1334,7 +1334,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1583,7 +1583,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1759,31 +1759,55 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2015,8 +2039,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2141,22 +2165,22 @@
         <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2173,7 +2197,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -2196,7 +2220,7 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>39</v>
@@ -2219,19 +2243,19 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>60</v>
@@ -2251,8 +2275,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2274,7 +2298,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/网络资源.xlsx
+++ b/test_data/网络资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="1000" activeTab="8"/>
+    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="1000" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="创建VLAN池" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -82,186 +82,147 @@
     <t>TRADITIONAL_VLAN</t>
   </si>
   <si>
+    <t>vmware资源池</t>
+  </si>
+  <si>
+    <t>删除VLAN测试</t>
+  </si>
+  <si>
+    <t>vlanpool_name</t>
+  </si>
+  <si>
+    <t>update_vlanpool_name</t>
+  </si>
+  <si>
+    <t>ResourcePool</t>
+  </si>
+  <si>
+    <t>删除VLAN测试-update</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>vlanPoolName</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>tagType</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>VC-网络</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>BUSINESS</t>
+  </si>
+  <si>
+    <t>OUTER_NET</t>
+  </si>
+  <si>
+    <t>vmware网络</t>
+  </si>
+  <si>
+    <t>删除网络测试</t>
+  </si>
+  <si>
+    <t>network_name</t>
+  </si>
+  <si>
+    <t>update_network_name</t>
+  </si>
+  <si>
+    <t>修改后的描述</t>
+  </si>
+  <si>
+    <t>subnet_name</t>
+  </si>
+  <si>
+    <t>ipProtocol</t>
+  </si>
+  <si>
+    <t>cidr</t>
+  </si>
+  <si>
+    <t>isGatewayDisabled</t>
+  </si>
+  <si>
+    <t>gatewayIp</t>
+  </si>
+  <si>
+    <t>ipPools</t>
+  </si>
+  <si>
+    <t>preferredDns</t>
+  </si>
+  <si>
+    <t>alternateDns</t>
+  </si>
+  <si>
+    <t>subnet</t>
+  </si>
+  <si>
+    <t>IPV4</t>
+  </si>
+  <si>
+    <t>172.21.3.1/24</t>
+  </si>
+  <si>
+    <t>172.21.3.1</t>
+  </si>
+  <si>
+    <t>172.21.3.40,172.21.3.200</t>
+  </si>
+  <si>
+    <t>删除子网测试</t>
+  </si>
+  <si>
+    <t>172.21.10.1/24</t>
+  </si>
+  <si>
+    <t>172.21.10.1</t>
+  </si>
+  <si>
+    <t>172.21.10.40,172.21.10.200</t>
+  </si>
+  <si>
+    <t>update_subnet_name</t>
+  </si>
+  <si>
+    <t>114.114.114.114</t>
+  </si>
+  <si>
+    <t>115.115.115.115</t>
+  </si>
+  <si>
+    <t>resourcePoolType</t>
+  </si>
+  <si>
+    <t>network_resourcepool_name</t>
+  </si>
+  <si>
+    <t>object_name</t>
+  </si>
+  <si>
+    <t>dvsName</t>
+  </si>
+  <si>
+    <t>vmware</t>
+  </si>
+  <si>
     <t>vmware资源池16</t>
   </si>
   <si>
-    <t>OP-VLAN池</t>
-  </si>
-  <si>
-    <t>openstack资源池65</t>
-  </si>
-  <si>
-    <t>OP30-VLAN池</t>
-  </si>
-  <si>
-    <t>openstack资源池30</t>
-  </si>
-  <si>
-    <t>删除VLAN测试</t>
-  </si>
-  <si>
-    <t>vlanpool_name</t>
-  </si>
-  <si>
-    <t>update_vlanpool_name</t>
-  </si>
-  <si>
-    <t>ResourcePool</t>
-  </si>
-  <si>
-    <t>删除VLAN测试-update</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>vlanPoolName</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>tagType</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>VC-网络</t>
-  </si>
-  <si>
-    <t>VLAN</t>
-  </si>
-  <si>
-    <t>BUSINESS</t>
-  </si>
-  <si>
-    <t>OUTER_NET</t>
-  </si>
-  <si>
-    <t>vmware网络</t>
-  </si>
-  <si>
-    <t>OP-网络</t>
-  </si>
-  <si>
-    <t>openstack网络</t>
-  </si>
-  <si>
-    <t>OP30-网络</t>
-  </si>
-  <si>
-    <t>openstack30网络</t>
-  </si>
-  <si>
-    <t>删除网络测试</t>
-  </si>
-  <si>
-    <t>network_name</t>
-  </si>
-  <si>
-    <t>update_network_name</t>
-  </si>
-  <si>
-    <t>修改后的描述</t>
-  </si>
-  <si>
-    <t>subnet_name</t>
-  </si>
-  <si>
-    <t>ipProtocol</t>
-  </si>
-  <si>
-    <t>cidr</t>
-  </si>
-  <si>
-    <t>isGatewayDisabled</t>
-  </si>
-  <si>
-    <t>gatewayIp</t>
-  </si>
-  <si>
-    <t>ipPools</t>
-  </si>
-  <si>
-    <t>preferredDns</t>
-  </si>
-  <si>
-    <t>alternateDns</t>
-  </si>
-  <si>
-    <t>subnet</t>
-  </si>
-  <si>
-    <t>IPV4</t>
-  </si>
-  <si>
-    <t>172.21.3.1/24</t>
-  </si>
-  <si>
-    <t>172.21.3.1</t>
-  </si>
-  <si>
-    <t>172.21.3.40,172.21.3.200</t>
-  </si>
-  <si>
-    <t>172.21.6.1/24</t>
-  </si>
-  <si>
-    <t>172.21.6.1</t>
-  </si>
-  <si>
-    <t>172.21.6.40,172.21.6.200</t>
-  </si>
-  <si>
-    <t>172.21.8.1/24</t>
-  </si>
-  <si>
-    <t>172.21.8.1</t>
-  </si>
-  <si>
-    <t>172.21.8.40,172.21.8.200</t>
-  </si>
-  <si>
-    <t>删除子网测试</t>
-  </si>
-  <si>
-    <t>172.21.10.1/24</t>
-  </si>
-  <si>
-    <t>172.21.10.1</t>
-  </si>
-  <si>
-    <t>172.21.10.40,172.21.10.200</t>
-  </si>
-  <si>
-    <t>update_subnet_name</t>
-  </si>
-  <si>
-    <t>114.114.114.114</t>
-  </si>
-  <si>
-    <t>115.115.115.115</t>
-  </si>
-  <si>
-    <t>resourcePoolType</t>
-  </si>
-  <si>
-    <t>network_resourcepool_name</t>
-  </si>
-  <si>
-    <t>object_name</t>
-  </si>
-  <si>
-    <t>dvsName</t>
-  </si>
-  <si>
-    <t>vmware</t>
-  </si>
-  <si>
     <t>VLAN_test</t>
   </si>
   <si>
@@ -271,16 +232,7 @@
     <t>objectname</t>
   </si>
   <si>
-    <t>VLAN1213</t>
-  </si>
-  <si>
-    <t>openstack</t>
-  </si>
-  <si>
-    <t>VLAN1216</t>
-  </si>
-  <si>
-    <t>vlan1216</t>
+    <t>vlan1218</t>
   </si>
   <si>
     <t>resourcepool</t>
@@ -300,10 +252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -334,6 +286,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -343,7 +310,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,6 +324,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -365,31 +340,78 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,83 +423,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -498,30 +450,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -534,37 +522,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,109 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,26 +683,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -790,6 +722,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -804,6 +745,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -812,10 +764,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -824,137 +776,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -977,12 +929,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1331,13 +1277,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="22.75" style="7" customWidth="1"/>
     <col min="2" max="2" width="24" style="7" customWidth="1"/>
@@ -1388,46 +1334,12 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="E3" s="4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4">
-        <v>102</v>
-      </c>
-      <c r="E4" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4">
-        <v>200</v>
-      </c>
-      <c r="E5" s="4">
         <v>200</v>
       </c>
     </row>
@@ -1460,36 +1372,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1501,13 +1413,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
@@ -1517,58 +1429,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1597,24 +1481,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1643,36 +1527,36 @@
   <sheetData>
     <row r="1" ht="18" spans="1:5">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1687,7 +1571,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1700,53 +1584,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="4">
         <v>200</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>200</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>200</v>
       </c>
     </row>
@@ -1759,55 +1643,39 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>12</v>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1819,13 +1687,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20" style="7" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="7" customWidth="1"/>
@@ -1840,98 +1708,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1959,36 +1787,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2014,10 +1842,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2025,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2037,13 +1865,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="A3" sqref="$A3:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
@@ -2058,132 +1886,82 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2214,54 +1992,54 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2053,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2287,18 +2065,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
